--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1338976.882807405</v>
+        <v>1334839.725557254</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>388.3388869832486</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>58.19950965909746</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.7739518087116</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.432401999687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>200.824217861299</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>45.06996073915403</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.93061033756668</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>233.6967540543197</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>218.2275692240563</v>
       </c>
       <c r="W10" t="n">
-        <v>141.8701959122712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>91.40260836685064</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H16" t="n">
-        <v>18.7084378797726</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.0663491738896</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>120.6889225686074</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756194</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3963959210127</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>247.6310136071107</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>252.4188248364702</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1158.553337363322</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C2" t="n">
-        <v>1158.553337363322</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1158.553337363322</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1158.553337363322</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>747.5674325737143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>2378.852737432587</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>2005.386979171507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.153177427444</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014359</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324039</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>778.5598833606609</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>778.5598833606609</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5703324626436</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5703324626436</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.744434193592</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.9083323241252</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962183</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962183</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1590.920907206665</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1301.802569710503</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.118081504616</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>757.7009114676554</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>757.7009114676554</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.9083323241252</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.93843194628</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>906.1501793480356</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>495.1642745584281</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>79.45952428271693</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>79.45952428271693</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926625</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926625</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950813</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144201</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458918</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485138</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.452659242627</v>
+        <v>1416.01423196939</v>
       </c>
       <c r="W10" t="n">
-        <v>427.1494310484136</v>
+        <v>1126.597061932429</v>
       </c>
       <c r="X10" t="n">
-        <v>199.1598801503962</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.1598801503962</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2311.700279152292</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>268.2292334372812</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021782</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>297.8113689946113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>297.8113689946113</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2257.062161108197</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524079</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868277</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.71639066239</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.29922062543</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727412</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3160.164713532175</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>2991.228530604268</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>2841.111891191932</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>2693.198797609539</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2693.198797609539</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1789.538274322277</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.7516311504064</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>154.0169020165192</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.89210447937324</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.64330621514753</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.60579027761645</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516689</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.12774237125612</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4.506629716717299</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.76564955277397</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26325,13 +26325,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26340,7 +26340,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,10 +26349,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467443</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,7 +26432,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719697</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439385</v>
+        <v>-848178.3576439384</v>
       </c>
       <c r="C6" t="n">
-        <v>266573.4259319811</v>
+        <v>266573.4259319806</v>
       </c>
       <c r="D6" t="n">
         <v>266573.4259319809</v>
       </c>
       <c r="E6" t="n">
-        <v>-131827.380096169</v>
+        <v>-132174.7593505258</v>
       </c>
       <c r="F6" t="n">
-        <v>375658.0615283769</v>
+        <v>375310.6822740197</v>
       </c>
       <c r="G6" t="n">
-        <v>375658.0615283765</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="H6" t="n">
-        <v>375658.0615283771</v>
+        <v>375310.68227402</v>
       </c>
       <c r="I6" t="n">
-        <v>375658.0615283768</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="J6" t="n">
-        <v>208052.8837183942</v>
+        <v>207705.5044640373</v>
       </c>
       <c r="K6" t="n">
-        <v>375658.061528377</v>
+        <v>375310.6822740199</v>
       </c>
       <c r="L6" t="n">
-        <v>375658.0615283768</v>
+        <v>375310.6822740198</v>
       </c>
       <c r="M6" t="n">
-        <v>243050.7677994502</v>
+        <v>242703.3885450932</v>
       </c>
       <c r="N6" t="n">
-        <v>375658.0615283769</v>
+        <v>375310.6822740195</v>
       </c>
       <c r="O6" t="n">
-        <v>375658.0615283767</v>
+        <v>375310.6822740201</v>
       </c>
       <c r="P6" t="n">
-        <v>375658.0615283768</v>
+        <v>375310.6822740199</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,40 +26962,40 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.20881578970534</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>148.4586753211363</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>11.36369151511639</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.3014396637936</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>206.0518278804124</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,10 +27827,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>175.6787352580579</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>37.77930233490381</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>136.0343466241494</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>33.91007409977166</v>
       </c>
       <c r="W10" t="n">
-        <v>144.6528024243198</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882572</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>590.9487307432803</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>340.604398260004</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334839.725557254</v>
+        <v>1336600.25586004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>118.0668062549624</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>58.19950965909746</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.824217861299</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>110.1983896001201</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.69811547110072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.06392343821524</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>233.6967540543197</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V10" t="n">
-        <v>218.2275692240563</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>91.40260836685064</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>247.6310136071107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.647807131574</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C2" t="n">
-        <v>859.685290191162</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>933.6727333395299</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>547.8844807412856</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>540.9389799920822</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2378.852737432587</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2378.852737432587</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2378.852737432587</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2378.852737432587</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2005.386979171507</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1615.247647195695</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1550.217733066223</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886157</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818652</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1375272818652</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2451.027823753569</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2242.282182359394</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1988.701121623574</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1657.638234280003</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1657.638234280003</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1657.638234280003</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1267.498902304191</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598626</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>292.9776840319557</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>142.86104461962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.381550944987</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336325</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901023</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.513345802446</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1664670606423</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.01423196939</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1126.597061932429</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>898.6075110344121</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.814931890882</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171301</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047943</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4253327224012</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>435.4253327224012</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>268.2292334372812</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6408,10 +6408,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
         <v>2035.268256189238</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1505.299220625425</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363245</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>48.89210447937324</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>143.8269525734169</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>4.506629716717299</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586428</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185703</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185702</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26352,7 +26352,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848178.3576439384</v>
+        <v>-848178.3576439383</v>
       </c>
       <c r="C6" t="n">
-        <v>266573.4259319806</v>
+        <v>266573.4259319812</v>
       </c>
       <c r="D6" t="n">
-        <v>266573.4259319809</v>
+        <v>266573.4259319811</v>
       </c>
       <c r="E6" t="n">
-        <v>-132174.7593505258</v>
+        <v>-131862.1180216048</v>
       </c>
       <c r="F6" t="n">
-        <v>375310.6822740197</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="G6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="H6" t="n">
-        <v>375310.68227402</v>
+        <v>375623.3236029412</v>
       </c>
       <c r="I6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.323602941</v>
       </c>
       <c r="J6" t="n">
-        <v>207705.5044640373</v>
+        <v>208018.1457929585</v>
       </c>
       <c r="K6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="L6" t="n">
-        <v>375310.6822740198</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="M6" t="n">
-        <v>242703.3885450932</v>
+        <v>243016.0298740145</v>
       </c>
       <c r="N6" t="n">
-        <v>375310.6822740195</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="O6" t="n">
-        <v>375310.6822740201</v>
+        <v>375623.323602941</v>
       </c>
       <c r="P6" t="n">
-        <v>375310.6822740199</v>
+        <v>375623.3236029411</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>293.4808965179916</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>148.4586753211363</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>200.8610509830096</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.0518278804124</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>13.2538257986743</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.73584717546845</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,19 +27824,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>95.59853692352225</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>136.0343466241494</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V10" t="n">
-        <v>33.91007409977166</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
